--- a/AppCHAT/bin/x64/Debug/net6.0-windows/data.xlsx
+++ b/AppCHAT/bin/x64/Debug/net6.0-windows/data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -57,6 +57,18 @@
   </si>
   <si>
     <t xml:space="preserve">đâs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Typemessagehere...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KHAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Typemessagehere...????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????</t>
   </si>
 </sst>
 </file>
@@ -179,6 +191,30 @@
         <v>14</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/AppCHAT/bin/x64/Debug/net6.0-windows/data.xlsx
+++ b/AppCHAT/bin/x64/Debug/net6.0-windows/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GiaBao\Downloads\New folder (3)\AppCHAT\AppCHAT\bin\x64\Debug\net6.0-windows\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\AppCHAT\AppCHAT\bin\x64\Debug\net6.0-windows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81AB5E8D-2595-432A-A531-D7FF8D84C4FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F174C3-23CA-4435-AFD4-78E178A6DC65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Name</t>
   </si>
@@ -28,19 +28,10 @@
     <t>Message</t>
   </si>
   <si>
-    <t>Khan-277</t>
+    <t>Khan-277.local</t>
   </si>
   <si>
-    <t xml:space="preserve"> chao khan</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Khan an com chua</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ok nhan duoc roi</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> an roi\</t>
+    <t>(16:24:53) - You - hi bae</t>
   </si>
 </sst>
 </file>
@@ -392,13 +383,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C6" sqref="A3:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -416,30 +411,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
